--- a/week 12 (Lab 7- known fate 2)/Lab 7 Rubric revised.xlsx
+++ b/week 12 (Lab 7- known fate 2)/Lab 7 Rubric revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umainesystem-my.sharepoint.com/personal/carolyn_merriam_maine_edu/Documents/WLE 411-Fall 2022/Lab Practice/Lab 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umainesystem-my.sharepoint.com/personal/liam_berigan_maine_edu/Documents/MaineAnalysis/WLE411/week 12 (Lab 7- known fate 2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA622701-D3F9-4745-A2DE-9F4D131A2BAF}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B748D0-E8A8-4FB8-B868-0734C91775A9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +191,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -226,11 +225,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,20 +545,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,17 +566,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -585,20 +584,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -606,12 +605,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -619,47 +618,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="31.15">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="31.15">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="46.9">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="46.9">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="46.9">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="46.9">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -667,27 +666,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -695,27 +694,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
@@ -723,12 +722,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
